--- a/paper/NF.xlsx
+++ b/paper/NF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomartinelli/projects/delt/delt-core/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB72BE2F-2B14-B44A-A1AA-EF39786FA166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA619C92-F13D-A54F-BC22-F172702D1F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1700" windowWidth="27220" windowHeight="17000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6185" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6213" uniqueCount="1988">
   <si>
     <t>OC(=O)C1=CC(=CN=C1)C#C</t>
   </si>
@@ -5970,9 +5970,6 @@
     <t>protocol</t>
   </si>
   <si>
-    <t>~/data/DECLT-DB/fastq_files/368061_1-241105_AG_BZ_NC_pool1_NF_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -5988,13 +5985,28 @@
     <t>info</t>
   </si>
   <si>
-    <t>/Users/adrianomartinelli/projects/delt/delt-core/paper</t>
-  </si>
-  <si>
     <t>experiment-1</t>
   </si>
   <si>
     <t>[CX2:1]#[CX2;H1:2].[N:3]=[N+:4]=[N-:5]&gt;&gt;[C:1]1=[C:2][N-0:3][N-0:4]=[N-0:5]1</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>analysis-1</t>
+  </si>
+  <si>
+    <t>analysis-2</t>
+  </si>
+  <si>
+    <t>analysis-3</t>
+  </si>
+  <si>
+    <t>/Users/adrianomartinelli/Library/CloudStorage/OneDrive-ETHZurich/oneDrive-documents/data/DECLT-DB/fastq_files/368061_1-241105_AG_BZ_NC_pool1_NF_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>/Users/adrianomartinelli/projects/delt/delt-core/paper/</t>
   </si>
 </sst>
 </file>
@@ -6085,7 +6097,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6167,6 +6179,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -6406,7 +6436,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6608,14 +6638,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6623,6 +6652,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6820,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974D6FDA-E213-EB43-BFF9-649EFEA0E858}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6844,7 +6882,7 @@
         <v>1865</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6852,7 +6890,7 @@
         <v>1875</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1975</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6860,7 +6898,7 @@
         <v>1876</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1981</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7067,10 +7105,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9286309-5176-CB48-AB9B-E8EF56CF21B1}">
-  <dimension ref="A1:L613"/>
+  <dimension ref="A1:M613"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7079,15 +7117,15 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1865</v>
       </c>
@@ -7101,31 +7139,34 @@
         <v>1970</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F1" s="21" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>1971</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>1980</v>
-      </c>
       <c r="H1" s="21" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>1972</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>1973</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>1974</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>1869</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>1926</v>
       </c>
@@ -7139,31 +7180,34 @@
         <v>1927</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F2" s="28" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>1931</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>1886</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="M2" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>1933</v>
       </c>
@@ -7177,31 +7221,34 @@
         <v>1927</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F3" s="28" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="H3" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="J3" s="30" t="s">
         <v>1931</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="32" t="s">
         <v>1888</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="M3" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>1934</v>
       </c>
@@ -7215,31 +7262,34 @@
         <v>1927</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F4" s="28" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="J4" s="30" t="s">
         <v>1931</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="K4" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="L4" s="32" t="s">
         <v>1889</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>1935</v>
       </c>
@@ -7253,31 +7303,34 @@
         <v>1936</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F5" s="28" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="H5" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="J5" s="30" t="s">
         <v>1931</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="K5" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="L5" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="M5" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>1937</v>
       </c>
@@ -7291,31 +7344,34 @@
         <v>1936</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F6" s="28" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="I6" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="J6" s="30" t="s">
         <v>1931</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="K6" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="L6" s="32" t="s">
         <v>777</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="M6" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>1938</v>
       </c>
@@ -7329,31 +7385,34 @@
         <v>1936</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F7" s="28" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="H7" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="I7" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="J7" s="30" t="s">
         <v>1931</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="K7" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>1890</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="M7" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>1939</v>
       </c>
@@ -7367,31 +7426,34 @@
         <v>1940</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1979</v>
-      </c>
-      <c r="F8" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="H8" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="I8" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="30" t="s">
         <v>1931</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="K8" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="L8" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="M8" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>1941</v>
       </c>
@@ -7405,31 +7467,34 @@
         <v>1940</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>1979</v>
-      </c>
-      <c r="F9" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="H9" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="I9" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="J9" s="30" t="s">
         <v>1931</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="K9" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="L9" s="32" t="s">
         <v>1891</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="M9" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>1942</v>
       </c>
@@ -7443,31 +7508,34 @@
         <v>1940</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>1979</v>
-      </c>
-      <c r="F10" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="I10" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="J10" s="30" t="s">
         <v>1931</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="K10" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="L10" s="32" t="s">
         <v>1892</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="M10" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>1943</v>
       </c>
@@ -7481,31 +7549,34 @@
         <v>1927</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F11" s="28" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="I11" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="J11" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="K11" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="L11" s="32" t="s">
         <v>1893</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="M11" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>1945</v>
       </c>
@@ -7519,31 +7590,34 @@
         <v>1927</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F12" s="28" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="H12" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="I12" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="J12" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="K12" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="L12" s="32" t="s">
         <v>1894</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="M12" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>1946</v>
       </c>
@@ -7557,31 +7631,34 @@
         <v>1927</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F13" s="28" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="H13" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="I13" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="J13" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="K13" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="L13" s="32" t="s">
         <v>1895</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="M13" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>1947</v>
       </c>
@@ -7595,31 +7672,34 @@
         <v>1948</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F14" s="28" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="H14" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="I14" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="J14" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="K14" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="L14" s="32" t="s">
         <v>1896</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="M14" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>1949</v>
       </c>
@@ -7633,31 +7713,34 @@
         <v>1948</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F15" s="28" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="H15" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="I15" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="J15" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="K15" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="L15" s="32" t="s">
         <v>1897</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="M15" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>1950</v>
       </c>
@@ -7671,31 +7754,34 @@
         <v>1948</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F16" s="28" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="H16" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="I16" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="J16" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="K16" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="L16" s="32" t="s">
         <v>1898</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="M16" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>1951</v>
       </c>
@@ -7709,31 +7795,34 @@
         <v>1952</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>1979</v>
-      </c>
-      <c r="F17" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="H17" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="I17" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="J17" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="K17" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="L17" s="32" t="s">
         <v>1899</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="M17" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>1953</v>
       </c>
@@ -7747,31 +7836,34 @@
         <v>1952</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>1979</v>
-      </c>
-      <c r="F18" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="H18" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="I18" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="J18" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="K18" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="L18" s="32" t="s">
         <v>1900</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="M18" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>1954</v>
       </c>
@@ -7785,31 +7877,34 @@
         <v>1952</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>1979</v>
-      </c>
-      <c r="F19" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>1928</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="H19" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="I19" s="25" t="s">
         <v>1930</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="J19" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="K19" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="L19" s="32" t="s">
         <v>1901</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="M19" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>1955</v>
       </c>
@@ -7823,31 +7918,34 @@
         <v>1927</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F20" s="39" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G20" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="H20" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="I20" s="25" t="s">
         <v>1957</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="J20" s="37" t="s">
         <v>1958</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="K20" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="L20" s="32" t="s">
         <v>1902</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="M20" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>1959</v>
       </c>
@@ -7861,31 +7959,34 @@
         <v>1927</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F21" s="39" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F21" s="85" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G21" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="H21" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="I21" s="25" t="s">
         <v>1957</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="J21" s="37" t="s">
         <v>1958</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="K21" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="L21" s="32" t="s">
         <v>1903</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="M21" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>1960</v>
       </c>
@@ -7899,31 +8000,34 @@
         <v>1927</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F22" s="39" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G22" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="H22" s="29" t="s">
         <v>1929</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="I22" s="25" t="s">
         <v>1957</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="J22" s="37" t="s">
         <v>1958</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="K22" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="L22" s="32" t="s">
         <v>1904</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="M22" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>1961</v>
       </c>
@@ -7937,31 +8041,34 @@
         <v>1962</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F23" s="39" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G23" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="H23" s="30" t="s">
         <v>1963</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="I23" s="25" t="s">
         <v>1957</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="J23" s="37" t="s">
         <v>1958</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="K23" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="L23" s="32" t="s">
         <v>1905</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="M23" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>1964</v>
       </c>
@@ -7975,31 +8082,34 @@
         <v>1962</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F24" s="39" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G24" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="H24" s="30" t="s">
         <v>1963</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="I24" s="25" t="s">
         <v>1957</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="J24" s="37" t="s">
         <v>1958</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="K24" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="L24" s="32" t="s">
         <v>808</v>
       </c>
-      <c r="L24" s="33" t="s">
+      <c r="M24" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>1965</v>
       </c>
@@ -8013,31 +8123,34 @@
         <v>1962</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F25" s="39" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G25" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="H25" s="30" t="s">
         <v>1963</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="I25" s="25" t="s">
         <v>1957</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="J25" s="37" t="s">
         <v>1958</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="K25" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="L25" s="32" t="s">
         <v>775</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="M25" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>1966</v>
       </c>
@@ -8051,31 +8164,34 @@
         <v>1962</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F26" s="39" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F26" s="85" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G26" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="H26" s="41" t="s">
         <v>1967</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="I26" s="25" t="s">
         <v>1957</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="J26" s="37" t="s">
         <v>1958</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="K26" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="L26" s="32" t="s">
         <v>1906</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="M26" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>1968</v>
       </c>
@@ -8089,31 +8205,34 @@
         <v>1962</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F27" s="39" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F27" s="85" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G27" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="H27" s="41" t="s">
         <v>1967</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>1957</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="J27" s="37" t="s">
         <v>1958</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="K27" s="31" t="s">
         <v>1932</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="L27" s="32" t="s">
         <v>1907</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="M27" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>1969</v>
       </c>
@@ -8127,40 +8246,43 @@
         <v>1962</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F28" s="46" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F28" s="85" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G28" s="46" t="s">
         <v>1956</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="H28" s="47" t="s">
         <v>1967</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="I28" s="43" t="s">
         <v>1957</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="J28" s="48" t="s">
         <v>1958</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="K28" s="49" t="s">
         <v>1932</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="L28" s="50" t="s">
         <v>1908</v>
       </c>
-      <c r="L28" s="51" t="s">
+      <c r="M28" s="51" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -9920,8 +10042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J613"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21675,8 +21797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E612"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F533" sqref="F533"/>
+    <sheetView topLeftCell="A513" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A548" sqref="A548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31006,9 +31128,8 @@
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" s="78"/>
       <c r="B549" s="78"/>
-      <c r="C549" s="79"/>
-      <c r="D549" s="80"/>
-      <c r="E549" s="80"/>
+      <c r="D549" s="79"/>
+      <c r="E549" s="79"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" s="3"/>
@@ -31425,7 +31546,7 @@
       <c r="A2" s="73" t="s">
         <v>1915</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>1844</v>
       </c>
     </row>
@@ -31433,7 +31554,7 @@
       <c r="A3" s="73" t="s">
         <v>1916</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>1845</v>
       </c>
     </row>
@@ -31441,7 +31562,7 @@
       <c r="A4" s="73" t="s">
         <v>1917</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>1846</v>
       </c>
     </row>
@@ -31449,7 +31570,7 @@
       <c r="A5" s="73" t="s">
         <v>1918</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>1910</v>
       </c>
     </row>
@@ -31457,7 +31578,7 @@
       <c r="A6" s="73" t="s">
         <v>1919</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>1912</v>
       </c>
     </row>
@@ -31465,7 +31586,7 @@
       <c r="A7" s="74" t="s">
         <v>1920</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="82" t="s">
         <v>1913</v>
       </c>
     </row>
@@ -31519,7 +31640,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">

--- a/paper/NF.xlsx
+++ b/paper/NF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomartinelli/projects/delt/delt-core/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA619C92-F13D-A54F-BC22-F172702D1F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A27F5C-BF3C-4C4E-88F5-6DA12A7974F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1700" windowWidth="27220" windowHeight="17000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6859,7 +6859,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7108,7 +7108,7 @@
   <dimension ref="A1:M613"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
